--- a/yolo.xlsx
+++ b/yolo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$J$676</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$J$107</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1735,11 +1735,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M676"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M107"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="A108:M676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -6149,15 +6149,6 @@
         <v>457</v>
       </c>
     </row>
-    <row r="668" ht="12.75"/>
-    <row r="669" ht="12.75"/>
-    <row r="670" ht="12.75"/>
-    <row r="671" ht="12.75"/>
-    <row r="672" ht="12.75"/>
-    <row r="673" ht="12.75"/>
-    <row r="674" ht="12.75"/>
-    <row r="675" ht="12.75"/>
-    <row r="676" ht="12.75"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>

--- a/yolo.xlsx
+++ b/yolo.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$J$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$I$107</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="450">
   <si>
     <t>id_manufaktur</t>
   </si>
@@ -28,9 +28,6 @@
     <t>DocuScan C3200A (Scanner Network)</t>
   </si>
   <si>
-    <t>Fuji Xerox</t>
-  </si>
-  <si>
     <t xml:space="preserve">C3200A </t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>FR 350</t>
   </si>
   <si>
-    <t>ICA</t>
-  </si>
-  <si>
     <t>FR 650</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>SM 500</t>
   </si>
   <si>
-    <t>Minamoto</t>
-  </si>
-  <si>
     <t>SM 1000</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t>Fargo HDP5000</t>
   </si>
   <si>
-    <t>FARGO</t>
-  </si>
-  <si>
     <t>HDP5000</t>
   </si>
   <si>
@@ -658,9 +646,6 @@
     <t>nama produk</t>
   </si>
   <si>
-    <t>merk</t>
-  </si>
-  <si>
     <t>tipe</t>
   </si>
   <si>
@@ -1171,9 +1156,6 @@
     <t>Magic G860S</t>
   </si>
   <si>
-    <t>Magic</t>
-  </si>
-  <si>
     <t>Fingerprint Capacity:3.000 templates;Record Capacity:50.000;Hardware Platform:ZMM100;Fingerprint Sensor:Optical Sensor Using BioID fingerprint Collector for;Excellent recognition rate:yes;Dry, Moist, or rough, fingerprints can work well:yes;Display:2.8 color screen;Comunication:TCP/IP,USB Host;Standard Function:Built in lithium battery, Built in Wifi, Automatic report generated at reader , Capability send report by email directly from reader, Can sent 3 email address, Push data transaction to web application;Access Control Interface:3rd Party Electric Lock Exit Button;Verification Speed:&lt; O.5sec;Screenpower supply:12V DC 1.5A;Operating Temp:OoC-45oC;Algoritma Ver:v1 0 0 and v9 0 default v10.0;Dimension:185x137x38.22mm (LxWxT);Operating Humidity:20%-80%;Garansi:1 Tahun</t>
   </si>
   <si>
@@ -1186,9 +1168,6 @@
     <t>HP IDS Z2 Tower G4 WKS</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>HP Z2 Tower G4</t>
   </si>
   <si>
@@ -1220,9 +1199,6 @@
   </si>
   <si>
     <t>Panasonic Lumix GH5 + Lensa LEICA 12-60mm</t>
-  </si>
-  <si>
-    <t>PANASONIC</t>
   </si>
   <si>
     <t>DC-GH5GC-K + H-ES12060E</t>
@@ -1735,11 +1711,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="A108:M676"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1762,48 +1738,45 @@
     <col min="16" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:12" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1823,28 +1796,25 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="H2" s="1">
+        <v>35977500</v>
       </c>
       <c r="I2" s="1">
-        <v>35977500</v>
-      </c>
-      <c r="J2" s="1">
         <v>34538460</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1858,34 +1828,31 @@
         <v>601</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44543750</v>
       </c>
       <c r="I3" s="1">
-        <v>44543750</v>
-      </c>
-      <c r="J3" s="1">
         <v>42762060</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1899,34 +1866,31 @@
         <v>601</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
         <v>3220</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>226</v>
+      <c r="G4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7352500</v>
       </c>
       <c r="I4" s="1">
-        <v>7352500</v>
-      </c>
-      <c r="J4" s="1">
         <v>7058480</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1940,34 +1904,31 @@
         <v>601</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
         <v>3125</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>228</v>
+      <c r="G5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8922500</v>
       </c>
       <c r="I5" s="1">
-        <v>8922500</v>
-      </c>
-      <c r="J5" s="1">
         <v>8565700</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1981,34 +1942,31 @@
         <v>601</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18273750</v>
       </c>
       <c r="I6" s="1">
-        <v>18273750</v>
-      </c>
-      <c r="J6" s="1">
         <v>17542800</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2022,34 +1980,31 @@
         <v>601</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
+      </c>
+      <c r="H7" s="1">
+        <v>53538750</v>
       </c>
       <c r="I7" s="1">
-        <v>53538750</v>
-      </c>
-      <c r="J7" s="1">
         <v>51397280</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2063,34 +2018,31 @@
         <v>601</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
+        <v>230</v>
+      </c>
+      <c r="F8" s="1">
         <v>4799</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>236</v>
+      <c r="G8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="1">
+        <v>220077500</v>
       </c>
       <c r="I8" s="1">
-        <v>220077500</v>
-      </c>
-      <c r="J8" s="1">
         <v>211274470</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2104,34 +2056,31 @@
         <v>601</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7056250</v>
       </c>
       <c r="I9" s="1">
-        <v>7056250</v>
-      </c>
-      <c r="J9" s="1">
         <v>6774020</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2145,34 +2094,31 @@
         <v>601</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+      <c r="H10" s="1">
+        <v>15226250</v>
       </c>
       <c r="I10" s="1">
-        <v>15226250</v>
-      </c>
-      <c r="J10" s="1">
         <v>14617240</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2186,34 +2132,31 @@
         <v>601</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+      <c r="H11" s="1">
+        <v>38947500</v>
       </c>
       <c r="I11" s="1">
-        <v>38947500</v>
-      </c>
-      <c r="J11" s="1">
         <v>37389660</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2227,34 +2170,31 @@
         <v>601</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
         <v>3105</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>244</v>
+      <c r="G12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14920000</v>
       </c>
       <c r="I12" s="1">
-        <v>14920000</v>
-      </c>
-      <c r="J12" s="1">
         <v>14323210</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2268,34 +2208,31 @@
         <v>601</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
+      </c>
+      <c r="H13" s="1">
+        <v>82366250</v>
       </c>
       <c r="I13" s="1">
-        <v>82366250</v>
-      </c>
-      <c r="J13" s="1">
         <v>79071630</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2309,34 +2246,31 @@
         <v>601</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>249</v>
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6427500</v>
       </c>
       <c r="I14" s="1">
-        <v>6427500</v>
-      </c>
-      <c r="J14" s="1">
         <v>6170450</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2350,34 +2284,31 @@
         <v>601</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>251</v>
+      <c r="G15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H15" s="1">
+        <v>18821250</v>
       </c>
       <c r="I15" s="1">
-        <v>18821250</v>
-      </c>
-      <c r="J15" s="1">
         <v>18068490</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2391,34 +2322,31 @@
         <v>601</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>253</v>
+      <c r="G16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="1">
+        <v>46708750</v>
       </c>
       <c r="I16" s="1">
-        <v>46708750</v>
-      </c>
-      <c r="J16" s="1">
         <v>44840400</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2432,34 +2360,31 @@
         <v>601</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
+      </c>
+      <c r="H17" s="1">
+        <v>33288750</v>
       </c>
       <c r="I17" s="1">
-        <v>33288750</v>
-      </c>
-      <c r="J17" s="1">
         <v>31957200</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2473,34 +2398,31 @@
         <v>601</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>258</v>
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9275000</v>
       </c>
       <c r="I18" s="1">
-        <v>9275000</v>
-      </c>
-      <c r="J18" s="1">
         <v>8904060</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2514,34 +2436,31 @@
         <v>601</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
+      </c>
+      <c r="H19" s="1">
+        <v>25392500</v>
       </c>
       <c r="I19" s="1">
-        <v>25392500</v>
-      </c>
-      <c r="J19" s="1">
         <v>24376880</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2555,34 +2474,31 @@
         <v>601</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>263</v>
+        <v>29</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11597500</v>
       </c>
       <c r="I20" s="1">
-        <v>11597500</v>
-      </c>
-      <c r="J20" s="1">
         <v>11133650</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2596,34 +2512,31 @@
         <v>601</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
+      </c>
+      <c r="H21" s="1">
+        <v>34241250</v>
       </c>
       <c r="I21" s="1">
-        <v>34241250</v>
-      </c>
-      <c r="J21" s="1">
         <v>32871630</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2637,34 +2550,31 @@
         <v>582</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1975000</v>
       </c>
       <c r="I22" s="1">
-        <v>1975000</v>
-      </c>
-      <c r="J22" s="1">
         <v>1896000</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2678,34 +2588,31 @@
         <v>582</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2975000</v>
       </c>
       <c r="I23" s="1">
-        <v>2975000</v>
-      </c>
-      <c r="J23" s="1">
         <v>2856000</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2719,34 +2626,31 @@
         <v>582</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4937500</v>
       </c>
       <c r="I24" s="1">
-        <v>4937500</v>
-      </c>
-      <c r="J24" s="1">
         <v>4740000</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="K24" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2760,34 +2664,31 @@
         <v>582</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6375000</v>
       </c>
       <c r="I25" s="1">
-        <v>6375000</v>
-      </c>
-      <c r="J25" s="1">
         <v>6120000</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="K25" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2801,34 +2702,31 @@
         <v>582</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8250000</v>
       </c>
       <c r="I26" s="1">
-        <v>8250000</v>
-      </c>
-      <c r="J26" s="1">
         <v>7920000</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2842,34 +2740,31 @@
         <v>582</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="H27" s="1">
+        <v>14187500</v>
       </c>
       <c r="I27" s="1">
-        <v>14187500</v>
-      </c>
-      <c r="J27" s="1">
         <v>13620000</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2883,34 +2778,31 @@
         <v>582</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20250000</v>
       </c>
       <c r="I28" s="1">
-        <v>20250000</v>
-      </c>
-      <c r="J28" s="1">
         <v>19440000</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="K28" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2924,34 +2816,31 @@
         <v>582</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="H29" s="1">
+        <v>32437500</v>
       </c>
       <c r="I29" s="1">
-        <v>32437500</v>
-      </c>
-      <c r="J29" s="1">
         <v>31140000</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2965,34 +2854,31 @@
         <v>582</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="H30" s="1">
+        <v>35375000</v>
       </c>
       <c r="I30" s="1">
-        <v>35375000</v>
-      </c>
-      <c r="J30" s="1">
         <v>33960000</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3006,34 +2892,31 @@
         <v>582</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="H31" s="1">
+        <v>39750000</v>
       </c>
       <c r="I31" s="1">
-        <v>39750000</v>
-      </c>
-      <c r="J31" s="1">
         <v>38160000</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3047,34 +2930,31 @@
         <v>582</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="H32" s="1">
+        <v>43500000</v>
       </c>
       <c r="I32" s="1">
-        <v>43500000</v>
-      </c>
-      <c r="J32" s="1">
         <v>41760000</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3088,34 +2968,31 @@
         <v>582</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="H33" s="1">
+        <v>53312500</v>
       </c>
       <c r="I33" s="1">
-        <v>53312500</v>
-      </c>
-      <c r="J33" s="1">
         <v>51180000</v>
       </c>
+      <c r="J33" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="K33" s="1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3129,34 +3006,31 @@
         <v>582</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="H34" s="1">
+        <v>57875000</v>
       </c>
       <c r="I34" s="1">
-        <v>57875000</v>
-      </c>
-      <c r="J34" s="1">
         <v>55560000</v>
       </c>
+      <c r="J34" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="K34" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3170,34 +3044,31 @@
         <v>582</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3625000</v>
       </c>
       <c r="I35" s="1">
-        <v>3625000</v>
-      </c>
-      <c r="J35" s="1">
         <v>3480000</v>
       </c>
+      <c r="J35" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3211,34 +3082,31 @@
         <v>582</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5625000</v>
       </c>
       <c r="I36" s="1">
-        <v>5625000</v>
-      </c>
-      <c r="J36" s="1">
         <v>5400000</v>
       </c>
+      <c r="J36" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3252,34 +3120,31 @@
         <v>582</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9625000</v>
       </c>
       <c r="I37" s="1">
-        <v>9625000</v>
-      </c>
-      <c r="J37" s="1">
         <v>9240000</v>
       </c>
+      <c r="J37" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3293,34 +3158,31 @@
         <v>582</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="H38" s="1">
+        <v>13750000</v>
       </c>
       <c r="I38" s="1">
-        <v>13750000</v>
-      </c>
-      <c r="J38" s="1">
         <v>13200000</v>
       </c>
+      <c r="J38" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3334,34 +3196,31 @@
         <v>582</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="H39" s="1">
+        <v>18125000</v>
       </c>
       <c r="I39" s="1">
-        <v>18125000</v>
-      </c>
-      <c r="J39" s="1">
         <v>17400000</v>
       </c>
+      <c r="J39" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3375,34 +3234,31 @@
         <v>582</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="H40" s="1">
+        <v>19750000</v>
       </c>
       <c r="I40" s="1">
-        <v>19750000</v>
-      </c>
-      <c r="J40" s="1">
         <v>18960000</v>
       </c>
+      <c r="J40" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3416,34 +3272,31 @@
         <v>582</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="H41" s="1">
+        <v>24750000</v>
       </c>
       <c r="I41" s="1">
-        <v>24750000</v>
-      </c>
-      <c r="J41" s="1">
         <v>23760000</v>
       </c>
+      <c r="J41" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3457,34 +3310,31 @@
         <v>582</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="H42" s="1">
+        <v>32250000</v>
       </c>
       <c r="I42" s="1">
-        <v>32250000</v>
-      </c>
-      <c r="J42" s="1">
         <v>30960000</v>
       </c>
+      <c r="J42" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3498,34 +3348,31 @@
         <v>583</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
+      </c>
+      <c r="H43" s="1">
+        <v>662500</v>
       </c>
       <c r="I43" s="1">
-        <v>662500</v>
-      </c>
-      <c r="J43" s="1">
         <v>636000</v>
       </c>
+      <c r="J43" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K43" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3539,34 +3386,31 @@
         <v>583</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1087500</v>
       </c>
       <c r="I44" s="1">
-        <v>1087500</v>
-      </c>
-      <c r="J44" s="1">
         <v>1044000</v>
       </c>
+      <c r="J44" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3580,34 +3424,31 @@
         <v>583</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2062500</v>
       </c>
       <c r="I45" s="1">
-        <v>2062500</v>
-      </c>
-      <c r="J45" s="1">
         <v>1980000</v>
       </c>
+      <c r="J45" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="K45" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3621,34 +3462,31 @@
         <v>583</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2812500</v>
       </c>
       <c r="I46" s="1">
-        <v>2812500</v>
-      </c>
-      <c r="J46" s="1">
         <v>2700000</v>
       </c>
+      <c r="J46" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3662,34 +3500,31 @@
         <v>583</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3875000</v>
       </c>
       <c r="I47" s="1">
-        <v>3875000</v>
-      </c>
-      <c r="J47" s="1">
         <v>3720000</v>
       </c>
+      <c r="J47" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="K47" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3703,34 +3538,31 @@
         <v>583</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4950000</v>
       </c>
       <c r="I48" s="1">
-        <v>4950000</v>
-      </c>
-      <c r="J48" s="1">
         <v>4752000</v>
       </c>
+      <c r="J48" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="K48" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3744,34 +3576,31 @@
         <v>583</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6100000</v>
       </c>
       <c r="I49" s="1">
-        <v>6100000</v>
-      </c>
-      <c r="J49" s="1">
         <v>5856000</v>
       </c>
+      <c r="J49" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="K49" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3785,34 +3614,31 @@
         <v>583</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="H50" s="1">
+        <v>8625000</v>
       </c>
       <c r="I50" s="1">
-        <v>8625000</v>
-      </c>
-      <c r="J50" s="1">
         <v>8280000</v>
       </c>
+      <c r="J50" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="K50" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3826,34 +3652,31 @@
         <v>583</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="H51" s="1">
+        <v>11750000</v>
       </c>
       <c r="I51" s="1">
-        <v>11750000</v>
-      </c>
-      <c r="J51" s="1">
         <v>11280000</v>
       </c>
+      <c r="J51" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="K51" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3867,34 +3690,31 @@
         <v>583</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="H52" s="1">
+        <v>17250000</v>
       </c>
       <c r="I52" s="1">
-        <v>17250000</v>
-      </c>
-      <c r="J52" s="1">
         <v>16560000</v>
       </c>
+      <c r="J52" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="K52" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3908,34 +3728,31 @@
         <v>583</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
+      </c>
+      <c r="H53" s="1">
+        <v>21000000</v>
       </c>
       <c r="I53" s="1">
-        <v>21000000</v>
-      </c>
-      <c r="J53" s="1">
         <v>20160000</v>
       </c>
+      <c r="J53" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="K53" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3949,34 +3766,31 @@
         <v>583</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
+      </c>
+      <c r="H54" s="1">
+        <v>26625000</v>
       </c>
       <c r="I54" s="1">
-        <v>26625000</v>
-      </c>
-      <c r="J54" s="1">
         <v>25560000</v>
       </c>
+      <c r="J54" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="K54" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3990,34 +3804,31 @@
         <v>583</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
+      </c>
+      <c r="H55" s="1">
+        <v>35625000</v>
       </c>
       <c r="I55" s="1">
-        <v>35625000</v>
-      </c>
-      <c r="J55" s="1">
         <v>34200000</v>
       </c>
+      <c r="J55" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="K55" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4031,34 +3842,31 @@
         <v>583</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="H56" s="1">
+        <v>45000000</v>
       </c>
       <c r="I56" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="J56" s="1">
         <v>43200000</v>
       </c>
+      <c r="J56" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="K56" s="1" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4072,34 +3880,31 @@
         <v>583</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="H57" s="1">
+        <v>127625000</v>
       </c>
       <c r="I57" s="1">
-        <v>127625000</v>
-      </c>
-      <c r="J57" s="1">
         <v>122520000</v>
       </c>
+      <c r="J57" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="K57" s="1" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4113,34 +3918,31 @@
         <v>583</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
+      </c>
+      <c r="H58" s="1">
+        <v>177000000</v>
       </c>
       <c r="I58" s="1">
-        <v>177000000</v>
-      </c>
-      <c r="J58" s="1">
         <v>169920000</v>
       </c>
+      <c r="J58" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="K58" s="1" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4154,34 +3956,31 @@
         <v>583</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
+      </c>
+      <c r="H59" s="1">
+        <v>235000000</v>
       </c>
       <c r="I59" s="1">
-        <v>235000000</v>
-      </c>
-      <c r="J59" s="1">
         <v>225600000</v>
       </c>
+      <c r="J59" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="K59" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4195,34 +3994,31 @@
         <v>582</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2850000</v>
       </c>
       <c r="I60" s="1">
-        <v>2850000</v>
-      </c>
-      <c r="J60" s="1">
         <v>2736000</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="K60" s="1" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4236,34 +4032,31 @@
         <v>582</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3625000</v>
       </c>
       <c r="I61" s="1">
-        <v>3625000</v>
-      </c>
-      <c r="J61" s="1">
         <v>3480000</v>
       </c>
+      <c r="J61" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="K61" s="1" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4277,34 +4070,31 @@
         <v>582</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="H62" s="1">
+        <v>7625000</v>
       </c>
       <c r="I62" s="1">
-        <v>7625000</v>
-      </c>
-      <c r="J62" s="1">
         <v>7320000</v>
       </c>
+      <c r="J62" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="K62" s="1" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4318,34 +4108,31 @@
         <v>582</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="H63" s="1">
+        <v>12750000</v>
       </c>
       <c r="I63" s="1">
-        <v>12750000</v>
-      </c>
-      <c r="J63" s="1">
         <v>12240000</v>
       </c>
+      <c r="J63" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="K63" s="1" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4359,34 +4146,31 @@
         <v>582</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2475000</v>
       </c>
       <c r="I64" s="1">
-        <v>2475000</v>
-      </c>
-      <c r="J64" s="1">
         <v>2376000</v>
       </c>
+      <c r="J64" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="K64" s="1" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4400,34 +4184,31 @@
         <v>582</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3250000</v>
       </c>
       <c r="I65" s="1">
-        <v>3250000</v>
-      </c>
-      <c r="J65" s="1">
         <v>3120000</v>
       </c>
+      <c r="J65" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="K65" s="1" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4441,34 +4222,31 @@
         <v>582</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="H66" s="1">
+        <v>4750000</v>
       </c>
       <c r="I66" s="1">
-        <v>4750000</v>
-      </c>
-      <c r="J66" s="1">
         <v>4560000</v>
       </c>
+      <c r="J66" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="K66" s="1" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4482,34 +4260,31 @@
         <v>582</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="H67" s="1">
+        <v>7125000</v>
       </c>
       <c r="I67" s="1">
-        <v>7125000</v>
-      </c>
-      <c r="J67" s="1">
         <v>6840000</v>
       </c>
+      <c r="J67" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4523,34 +4298,31 @@
         <v>582</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="H68" s="1">
+        <v>8500000</v>
       </c>
       <c r="I68" s="1">
-        <v>8500000</v>
-      </c>
-      <c r="J68" s="1">
         <v>8160000</v>
       </c>
+      <c r="J68" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="K68" s="1" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4564,34 +4336,31 @@
         <v>582</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1600000</v>
       </c>
       <c r="I69" s="1">
-        <v>1600000</v>
-      </c>
-      <c r="J69" s="1">
         <v>1536000</v>
       </c>
+      <c r="J69" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="K69" s="1" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4605,34 +4374,31 @@
         <v>582</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2450000</v>
       </c>
       <c r="I70" s="1">
-        <v>2450000</v>
-      </c>
-      <c r="J70" s="1">
         <v>2352000</v>
       </c>
+      <c r="J70" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="K70" s="1" t="s">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4646,34 +4412,31 @@
         <v>582</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3350000</v>
       </c>
       <c r="I71" s="1">
-        <v>3350000</v>
-      </c>
-      <c r="J71" s="1">
         <v>3216000</v>
       </c>
+      <c r="J71" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="K71" s="1" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4687,34 +4450,31 @@
         <v>582</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5625000</v>
       </c>
       <c r="I72" s="1">
-        <v>5625000</v>
-      </c>
-      <c r="J72" s="1">
         <v>5400000</v>
       </c>
+      <c r="J72" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="K72" s="1" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4728,34 +4488,31 @@
         <v>582</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="H73" s="1">
+        <v>7000000</v>
       </c>
       <c r="I73" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="J73" s="1">
         <v>6720000</v>
       </c>
+      <c r="J73" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="K73" s="1" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4769,34 +4526,31 @@
         <v>582</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
+      </c>
+      <c r="H74" s="1">
+        <v>9750000</v>
       </c>
       <c r="I74" s="1">
-        <v>9750000</v>
-      </c>
-      <c r="J74" s="1">
         <v>9360000</v>
       </c>
+      <c r="J74" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="K74" s="1" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4810,34 +4564,31 @@
         <v>582</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+      <c r="H75" s="1">
+        <v>14500000</v>
       </c>
       <c r="I75" s="1">
-        <v>14500000</v>
-      </c>
-      <c r="J75" s="1">
         <v>13920000</v>
       </c>
+      <c r="J75" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="K75" s="1" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4851,34 +4602,31 @@
         <v>582</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
+      </c>
+      <c r="H76" s="1">
+        <v>17500000</v>
       </c>
       <c r="I76" s="1">
-        <v>17500000</v>
-      </c>
-      <c r="J76" s="1">
         <v>16800000</v>
       </c>
+      <c r="J76" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="K76" s="1" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4892,34 +4640,31 @@
         <v>582</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
+      </c>
+      <c r="H77" s="1">
+        <v>7575000</v>
       </c>
       <c r="I77" s="1">
-        <v>7575000</v>
-      </c>
-      <c r="J77" s="1">
         <v>7272000</v>
       </c>
+      <c r="J77" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="K77" s="1" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4933,34 +4678,31 @@
         <v>582</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
+      </c>
+      <c r="H78" s="1">
+        <v>13250000</v>
       </c>
       <c r="I78" s="1">
-        <v>13250000</v>
-      </c>
-      <c r="J78" s="1">
         <v>12720000</v>
       </c>
+      <c r="J78" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="K78" s="1" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4974,34 +4716,31 @@
         <v>582</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="H79" s="1">
+        <v>17500000</v>
       </c>
       <c r="I79" s="1">
-        <v>17500000</v>
-      </c>
-      <c r="J79" s="1">
         <v>16800000</v>
       </c>
+      <c r="J79" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="K79" s="1" t="s">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5015,34 +4754,31 @@
         <v>582</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
+      </c>
+      <c r="H80" s="1">
+        <v>29500000</v>
       </c>
       <c r="I80" s="1">
-        <v>29500000</v>
-      </c>
-      <c r="J80" s="1">
         <v>28320000</v>
       </c>
+      <c r="J80" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="K80" s="1" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5056,34 +4792,31 @@
         <v>582</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="H81" s="1">
+        <v>45000000</v>
       </c>
       <c r="I81" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="J81" s="1">
         <v>43200000</v>
       </c>
+      <c r="J81" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="K81" s="1" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5097,34 +4830,31 @@
         <v>582</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="H82" s="1">
+        <v>51000000</v>
       </c>
       <c r="I82" s="1">
-        <v>51000000</v>
-      </c>
-      <c r="J82" s="1">
         <v>48960000</v>
       </c>
+      <c r="J82" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="K82" s="1" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5138,34 +4868,31 @@
         <v>582</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="H83" s="1">
+        <v>5100000</v>
       </c>
       <c r="I83" s="1">
-        <v>5100000</v>
-      </c>
-      <c r="J83" s="1">
         <v>4896000</v>
       </c>
+      <c r="J83" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="K83" s="1" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5179,34 +4906,31 @@
         <v>582</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="H84" s="1">
+        <v>8250000</v>
       </c>
       <c r="I84" s="1">
-        <v>8250000</v>
-      </c>
-      <c r="J84" s="1">
         <v>7920000</v>
       </c>
+      <c r="J84" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="K84" s="1" t="s">
-        <v>367</v>
+        <v>264</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5220,34 +4944,31 @@
         <v>582</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="H85" s="1">
+        <v>9125000</v>
       </c>
       <c r="I85" s="1">
-        <v>9125000</v>
-      </c>
-      <c r="J85" s="1">
         <v>8760000</v>
       </c>
+      <c r="J85" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="K85" s="1" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5261,34 +4982,31 @@
         <v>582</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
+      </c>
+      <c r="H86" s="1">
+        <v>12625000</v>
       </c>
       <c r="I86" s="1">
-        <v>12625000</v>
-      </c>
-      <c r="J86" s="1">
         <v>12120000</v>
       </c>
+      <c r="J86" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="K86" s="1" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5302,34 +5020,31 @@
         <v>582</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+      <c r="H87" s="1">
+        <v>19375000</v>
       </c>
       <c r="I87" s="1">
-        <v>19375000</v>
-      </c>
-      <c r="J87" s="1">
         <v>18600000</v>
       </c>
+      <c r="J87" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="K87" s="1" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5343,34 +5058,31 @@
         <v>582</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
+      </c>
+      <c r="H88" s="1">
+        <v>24625000</v>
       </c>
       <c r="I88" s="1">
-        <v>24625000</v>
-      </c>
-      <c r="J88" s="1">
         <v>23640000</v>
       </c>
+      <c r="J88" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="K88" s="1" t="s">
-        <v>371</v>
+        <v>264</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5384,34 +5096,31 @@
         <v>582</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="H89" s="1">
+        <v>57500000</v>
       </c>
       <c r="I89" s="1">
-        <v>57500000</v>
-      </c>
-      <c r="J89" s="1">
         <v>55200000</v>
       </c>
+      <c r="J89" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="K89" s="1" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5425,34 +5134,31 @@
         <v>582</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="H90" s="1">
+        <v>90750000</v>
       </c>
       <c r="I90" s="1">
-        <v>90750000</v>
-      </c>
-      <c r="J90" s="1">
         <v>87120000</v>
       </c>
+      <c r="J90" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="K90" s="1" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5466,34 +5172,31 @@
         <v>690</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="H91" s="1">
+        <v>50194805.714285724</v>
       </c>
       <c r="I91" s="1">
-        <v>50194805.714285724</v>
-      </c>
-      <c r="J91" s="1">
         <v>48187013</v>
       </c>
+      <c r="J91" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="K91" s="1" t="s">
-        <v>376</v>
+        <v>101</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5507,34 +5210,31 @@
         <v>690</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1863635.7142857143</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1789090</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I92" s="1">
-        <v>1863635.7142857143</v>
-      </c>
-      <c r="J92" s="1">
-        <v>1789090</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="L92" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5548,34 +5248,31 @@
         <v>690</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
+      </c>
+      <c r="H93" s="1">
+        <v>3844155.7142857146</v>
       </c>
       <c r="I93" s="1">
-        <v>3844155.7142857146</v>
-      </c>
-      <c r="J93" s="1">
         <v>3690389</v>
       </c>
+      <c r="J93" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="K93" s="1" t="s">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5589,34 +5286,31 @@
         <v>690</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="H94" s="1">
+        <v>551948.57142857148</v>
       </c>
       <c r="I94" s="1">
-        <v>551948.57142857148</v>
-      </c>
-      <c r="J94" s="1">
         <v>529871</v>
       </c>
+      <c r="J94" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="K94" s="1" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5630,34 +5324,31 @@
         <v>2065</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H95" s="1">
+        <v>15789516</v>
       </c>
       <c r="I95" s="1">
-        <v>15789516</v>
-      </c>
-      <c r="J95" s="1">
         <v>15000040</v>
       </c>
+      <c r="J95" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K95" s="1" t="s">
-        <v>386</v>
+        <v>101</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5671,34 +5362,31 @@
         <v>204</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
+      </c>
+      <c r="H96" s="1">
+        <v>24543750</v>
       </c>
       <c r="I96" s="1">
-        <v>24543750</v>
-      </c>
-      <c r="J96" s="1">
         <v>23562000</v>
       </c>
+      <c r="J96" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="K96" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5712,34 +5400,31 @@
         <v>204</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>396</v>
+      <c r="H97" s="1">
+        <v>11687500</v>
       </c>
       <c r="I97" s="1">
-        <v>11687500</v>
-      </c>
-      <c r="J97" s="1">
         <v>11220000</v>
       </c>
+      <c r="J97" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="K97" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5753,34 +5438,31 @@
         <v>71</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>403</v>
+        <v>394</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H98" s="1">
+        <v>43955000</v>
       </c>
       <c r="I98" s="1">
-        <v>43955000</v>
-      </c>
-      <c r="J98" s="1">
         <v>42196800</v>
       </c>
+      <c r="J98" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="K98" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5794,34 +5476,31 @@
         <v>71</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>409</v>
+      <c r="H99" s="1">
+        <v>53325000</v>
       </c>
       <c r="I99" s="1">
-        <v>53325000</v>
-      </c>
-      <c r="J99" s="1">
         <v>51192000</v>
       </c>
+      <c r="J99" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="K99" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5835,34 +5514,31 @@
         <v>71</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
+      </c>
+      <c r="H100" s="1">
+        <v>14098750</v>
       </c>
       <c r="I100" s="1">
-        <v>14098750</v>
-      </c>
-      <c r="J100" s="1">
         <v>13534800</v>
       </c>
+      <c r="J100" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="K100" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5876,34 +5552,31 @@
         <v>71</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H101" s="1">
+        <v>9986250</v>
       </c>
       <c r="I101" s="1">
-        <v>9986250</v>
-      </c>
-      <c r="J101" s="1">
         <v>9586800</v>
       </c>
+      <c r="J101" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="K101" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5917,34 +5590,31 @@
         <v>71</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
+      </c>
+      <c r="H102" s="1">
+        <v>26311250</v>
       </c>
       <c r="I102" s="1">
-        <v>26311250</v>
-      </c>
-      <c r="J102" s="1">
         <v>25258800</v>
       </c>
+      <c r="J102" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="K102" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5958,34 +5628,31 @@
         <v>71</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
+      </c>
+      <c r="H103" s="1">
+        <v>10573750</v>
       </c>
       <c r="I103" s="1">
-        <v>10573750</v>
-      </c>
-      <c r="J103" s="1">
         <v>10150800</v>
       </c>
+      <c r="J103" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="K103" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5999,34 +5666,31 @@
         <v>71</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1056250</v>
       </c>
       <c r="I104" s="1">
-        <v>1056250</v>
-      </c>
-      <c r="J104" s="1">
         <v>1014000</v>
       </c>
+      <c r="J104" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="K104" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6040,34 +5704,31 @@
         <v>71</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1056250</v>
       </c>
       <c r="I105" s="1">
-        <v>1056250</v>
-      </c>
-      <c r="J105" s="1">
         <v>1014000</v>
       </c>
+      <c r="J105" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="K105" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6081,34 +5742,31 @@
         <v>71</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="H106" s="1">
+        <v>997500</v>
       </c>
       <c r="I106" s="1">
-        <v>997500</v>
-      </c>
-      <c r="J106" s="1">
         <v>957600</v>
       </c>
+      <c r="J106" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="K106" s="1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6122,247 +5780,244 @@
         <v>71</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
+      </c>
+      <c r="H107" s="1">
+        <v>938750</v>
       </c>
       <c r="I107" s="1">
-        <v>938750</v>
-      </c>
-      <c r="J107" s="1">
         <v>901200</v>
       </c>
+      <c r="J107" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="K107" s="1" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="L3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="L4" r:id="rId5"/>
-    <hyperlink ref="M4" r:id="rId6"/>
-    <hyperlink ref="L5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="L6" r:id="rId9"/>
-    <hyperlink ref="M6" r:id="rId10"/>
-    <hyperlink ref="L7" r:id="rId11"/>
-    <hyperlink ref="M7" r:id="rId12"/>
-    <hyperlink ref="L8" r:id="rId13"/>
-    <hyperlink ref="M8" r:id="rId14"/>
-    <hyperlink ref="L9" r:id="rId15"/>
-    <hyperlink ref="M9" r:id="rId16"/>
-    <hyperlink ref="L10" r:id="rId17"/>
-    <hyperlink ref="M10" r:id="rId18"/>
-    <hyperlink ref="L11" r:id="rId19"/>
-    <hyperlink ref="M11" r:id="rId20"/>
-    <hyperlink ref="L12" r:id="rId21"/>
-    <hyperlink ref="M12" r:id="rId22"/>
-    <hyperlink ref="L13" r:id="rId23"/>
-    <hyperlink ref="M13" r:id="rId24"/>
-    <hyperlink ref="L14" r:id="rId25"/>
-    <hyperlink ref="M14" r:id="rId26"/>
-    <hyperlink ref="L15" r:id="rId27"/>
-    <hyperlink ref="M15" r:id="rId28"/>
-    <hyperlink ref="L16" r:id="rId29"/>
-    <hyperlink ref="M16" r:id="rId30"/>
-    <hyperlink ref="L17" r:id="rId31"/>
-    <hyperlink ref="M17" r:id="rId32"/>
-    <hyperlink ref="L18" r:id="rId33"/>
-    <hyperlink ref="M18" r:id="rId34"/>
-    <hyperlink ref="L19" r:id="rId35"/>
-    <hyperlink ref="M19" r:id="rId36"/>
-    <hyperlink ref="L20" r:id="rId37"/>
-    <hyperlink ref="M20" r:id="rId38"/>
-    <hyperlink ref="L21" r:id="rId39"/>
-    <hyperlink ref="M21" r:id="rId40"/>
-    <hyperlink ref="L22" r:id="rId41"/>
-    <hyperlink ref="M22" r:id="rId42"/>
-    <hyperlink ref="L23" r:id="rId43"/>
-    <hyperlink ref="M23" r:id="rId44"/>
-    <hyperlink ref="L24" r:id="rId45"/>
-    <hyperlink ref="M24" r:id="rId46"/>
-    <hyperlink ref="L25" r:id="rId47"/>
-    <hyperlink ref="M25" r:id="rId48"/>
-    <hyperlink ref="L26" r:id="rId49"/>
-    <hyperlink ref="M26" r:id="rId50"/>
-    <hyperlink ref="L27" r:id="rId51"/>
-    <hyperlink ref="M27" r:id="rId52"/>
-    <hyperlink ref="L28" r:id="rId53"/>
-    <hyperlink ref="M28" r:id="rId54"/>
-    <hyperlink ref="L29" r:id="rId55"/>
-    <hyperlink ref="M29" r:id="rId56"/>
-    <hyperlink ref="L30" r:id="rId57"/>
-    <hyperlink ref="M30" r:id="rId58"/>
-    <hyperlink ref="L31" r:id="rId59"/>
-    <hyperlink ref="M31" r:id="rId60"/>
-    <hyperlink ref="L32" r:id="rId61"/>
-    <hyperlink ref="M32" r:id="rId62"/>
-    <hyperlink ref="L33" r:id="rId63"/>
-    <hyperlink ref="M33" r:id="rId64"/>
-    <hyperlink ref="L34" r:id="rId65"/>
-    <hyperlink ref="M34" r:id="rId66"/>
-    <hyperlink ref="L35" r:id="rId67"/>
-    <hyperlink ref="M35" r:id="rId68"/>
-    <hyperlink ref="L36" r:id="rId69"/>
-    <hyperlink ref="M36" r:id="rId70"/>
-    <hyperlink ref="L37" r:id="rId71"/>
-    <hyperlink ref="M37" r:id="rId72"/>
-    <hyperlink ref="L38" r:id="rId73"/>
-    <hyperlink ref="M38" r:id="rId74"/>
-    <hyperlink ref="L39" r:id="rId75"/>
-    <hyperlink ref="M39" r:id="rId76"/>
-    <hyperlink ref="L40" r:id="rId77"/>
-    <hyperlink ref="M40" r:id="rId78"/>
-    <hyperlink ref="L41" r:id="rId79"/>
-    <hyperlink ref="M41" r:id="rId80"/>
-    <hyperlink ref="L42" r:id="rId81"/>
-    <hyperlink ref="M42" r:id="rId82"/>
-    <hyperlink ref="L43" r:id="rId83"/>
-    <hyperlink ref="M43" r:id="rId84"/>
-    <hyperlink ref="L44" r:id="rId85"/>
-    <hyperlink ref="M44" r:id="rId86"/>
-    <hyperlink ref="L45" r:id="rId87"/>
-    <hyperlink ref="M45" r:id="rId88"/>
-    <hyperlink ref="L46" r:id="rId89"/>
-    <hyperlink ref="M46" r:id="rId90"/>
-    <hyperlink ref="L47" r:id="rId91"/>
-    <hyperlink ref="M47" r:id="rId92"/>
-    <hyperlink ref="L48" r:id="rId93"/>
-    <hyperlink ref="M48" r:id="rId94"/>
-    <hyperlink ref="L49" r:id="rId95"/>
-    <hyperlink ref="M49" r:id="rId96"/>
-    <hyperlink ref="L50" r:id="rId97"/>
-    <hyperlink ref="M50" r:id="rId98"/>
-    <hyperlink ref="L51" r:id="rId99"/>
-    <hyperlink ref="M51" r:id="rId100"/>
-    <hyperlink ref="L52" r:id="rId101"/>
-    <hyperlink ref="M52" r:id="rId102"/>
-    <hyperlink ref="L53" r:id="rId103"/>
-    <hyperlink ref="M53" r:id="rId104"/>
-    <hyperlink ref="L54" r:id="rId105"/>
-    <hyperlink ref="M54" r:id="rId106"/>
-    <hyperlink ref="L55" r:id="rId107"/>
-    <hyperlink ref="M55" r:id="rId108"/>
-    <hyperlink ref="L56" r:id="rId109"/>
-    <hyperlink ref="M56" r:id="rId110"/>
-    <hyperlink ref="L57" r:id="rId111"/>
-    <hyperlink ref="M57" r:id="rId112"/>
-    <hyperlink ref="L58" r:id="rId113"/>
-    <hyperlink ref="M58" r:id="rId114"/>
-    <hyperlink ref="L59" r:id="rId115"/>
-    <hyperlink ref="M59" r:id="rId116"/>
-    <hyperlink ref="L60" r:id="rId117"/>
-    <hyperlink ref="M60" r:id="rId118"/>
-    <hyperlink ref="L61" r:id="rId119"/>
-    <hyperlink ref="M61" r:id="rId120"/>
-    <hyperlink ref="L62" r:id="rId121"/>
-    <hyperlink ref="M62" r:id="rId122"/>
-    <hyperlink ref="L63" r:id="rId123"/>
-    <hyperlink ref="M63" r:id="rId124"/>
-    <hyperlink ref="L64" r:id="rId125"/>
-    <hyperlink ref="M64" r:id="rId126"/>
-    <hyperlink ref="L65" r:id="rId127"/>
-    <hyperlink ref="M65" r:id="rId128"/>
-    <hyperlink ref="L66" r:id="rId129"/>
-    <hyperlink ref="M66" r:id="rId130"/>
-    <hyperlink ref="L67" r:id="rId131"/>
-    <hyperlink ref="M67" r:id="rId132"/>
-    <hyperlink ref="L68" r:id="rId133"/>
-    <hyperlink ref="M68" r:id="rId134"/>
-    <hyperlink ref="L69" r:id="rId135"/>
-    <hyperlink ref="M69" r:id="rId136"/>
-    <hyperlink ref="L70" r:id="rId137"/>
-    <hyperlink ref="M70" r:id="rId138"/>
-    <hyperlink ref="L71" r:id="rId139"/>
-    <hyperlink ref="M71" r:id="rId140"/>
-    <hyperlink ref="L72" r:id="rId141"/>
-    <hyperlink ref="M72" r:id="rId142"/>
-    <hyperlink ref="L73" r:id="rId143"/>
-    <hyperlink ref="M73" r:id="rId144"/>
-    <hyperlink ref="L74" r:id="rId145"/>
-    <hyperlink ref="M74" r:id="rId146"/>
-    <hyperlink ref="L75" r:id="rId147"/>
-    <hyperlink ref="M75" r:id="rId148"/>
-    <hyperlink ref="L76" r:id="rId149"/>
-    <hyperlink ref="M76" r:id="rId150"/>
-    <hyperlink ref="L77" r:id="rId151"/>
-    <hyperlink ref="M77" r:id="rId152"/>
-    <hyperlink ref="L78" r:id="rId153"/>
-    <hyperlink ref="M78" r:id="rId154"/>
-    <hyperlink ref="L79" r:id="rId155"/>
-    <hyperlink ref="M79" r:id="rId156"/>
-    <hyperlink ref="L80" r:id="rId157"/>
-    <hyperlink ref="M80" r:id="rId158"/>
-    <hyperlink ref="L81" r:id="rId159"/>
-    <hyperlink ref="M81" r:id="rId160"/>
-    <hyperlink ref="L82" r:id="rId161"/>
-    <hyperlink ref="M82" r:id="rId162"/>
-    <hyperlink ref="L83" r:id="rId163"/>
-    <hyperlink ref="M83" r:id="rId164"/>
-    <hyperlink ref="L84" r:id="rId165"/>
-    <hyperlink ref="M84" r:id="rId166"/>
-    <hyperlink ref="L85" r:id="rId167"/>
-    <hyperlink ref="M85" r:id="rId168"/>
-    <hyperlink ref="L86" r:id="rId169"/>
-    <hyperlink ref="M86" r:id="rId170"/>
-    <hyperlink ref="L87" r:id="rId171"/>
-    <hyperlink ref="M87" r:id="rId172"/>
-    <hyperlink ref="L88" r:id="rId173"/>
-    <hyperlink ref="M88" r:id="rId174"/>
-    <hyperlink ref="L89" r:id="rId175"/>
-    <hyperlink ref="M89" r:id="rId176"/>
-    <hyperlink ref="L90" r:id="rId177"/>
-    <hyperlink ref="M90" r:id="rId178"/>
-    <hyperlink ref="L91" r:id="rId179"/>
-    <hyperlink ref="M91" r:id="rId180"/>
-    <hyperlink ref="L92" r:id="rId181"/>
-    <hyperlink ref="M92" r:id="rId182"/>
-    <hyperlink ref="L93" r:id="rId183"/>
-    <hyperlink ref="M93" r:id="rId184"/>
-    <hyperlink ref="L94" r:id="rId185"/>
-    <hyperlink ref="M94" r:id="rId186"/>
-    <hyperlink ref="L95" r:id="rId187"/>
-    <hyperlink ref="M95" r:id="rId188"/>
-    <hyperlink ref="L96" r:id="rId189"/>
-    <hyperlink ref="M96" r:id="rId190"/>
-    <hyperlink ref="L97" r:id="rId191"/>
-    <hyperlink ref="M97" r:id="rId192"/>
-    <hyperlink ref="L98" r:id="rId193"/>
-    <hyperlink ref="M98" r:id="rId194"/>
-    <hyperlink ref="L99" r:id="rId195"/>
-    <hyperlink ref="M99" r:id="rId196"/>
-    <hyperlink ref="L100" r:id="rId197"/>
-    <hyperlink ref="M100" r:id="rId198"/>
-    <hyperlink ref="L101" r:id="rId199"/>
-    <hyperlink ref="M101" r:id="rId200"/>
-    <hyperlink ref="L102" r:id="rId201"/>
-    <hyperlink ref="M102" r:id="rId202"/>
-    <hyperlink ref="L103" r:id="rId203"/>
-    <hyperlink ref="M103" r:id="rId204"/>
-    <hyperlink ref="L104" r:id="rId205"/>
-    <hyperlink ref="M104" r:id="rId206"/>
-    <hyperlink ref="L105" r:id="rId207"/>
-    <hyperlink ref="M105" r:id="rId208"/>
-    <hyperlink ref="L106" r:id="rId209"/>
-    <hyperlink ref="M106" r:id="rId210"/>
-    <hyperlink ref="L107" r:id="rId211"/>
-    <hyperlink ref="M107" r:id="rId212"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
+    <hyperlink ref="K4" r:id="rId5"/>
+    <hyperlink ref="L4" r:id="rId6"/>
+    <hyperlink ref="K5" r:id="rId7"/>
+    <hyperlink ref="L5" r:id="rId8"/>
+    <hyperlink ref="K6" r:id="rId9"/>
+    <hyperlink ref="L6" r:id="rId10"/>
+    <hyperlink ref="K7" r:id="rId11"/>
+    <hyperlink ref="L7" r:id="rId12"/>
+    <hyperlink ref="K8" r:id="rId13"/>
+    <hyperlink ref="L8" r:id="rId14"/>
+    <hyperlink ref="K9" r:id="rId15"/>
+    <hyperlink ref="L9" r:id="rId16"/>
+    <hyperlink ref="K10" r:id="rId17"/>
+    <hyperlink ref="L10" r:id="rId18"/>
+    <hyperlink ref="K11" r:id="rId19"/>
+    <hyperlink ref="L11" r:id="rId20"/>
+    <hyperlink ref="K12" r:id="rId21"/>
+    <hyperlink ref="L12" r:id="rId22"/>
+    <hyperlink ref="K13" r:id="rId23"/>
+    <hyperlink ref="L13" r:id="rId24"/>
+    <hyperlink ref="K14" r:id="rId25"/>
+    <hyperlink ref="L14" r:id="rId26"/>
+    <hyperlink ref="K15" r:id="rId27"/>
+    <hyperlink ref="L15" r:id="rId28"/>
+    <hyperlink ref="K16" r:id="rId29"/>
+    <hyperlink ref="L16" r:id="rId30"/>
+    <hyperlink ref="K17" r:id="rId31"/>
+    <hyperlink ref="L17" r:id="rId32"/>
+    <hyperlink ref="K18" r:id="rId33"/>
+    <hyperlink ref="L18" r:id="rId34"/>
+    <hyperlink ref="K19" r:id="rId35"/>
+    <hyperlink ref="L19" r:id="rId36"/>
+    <hyperlink ref="K20" r:id="rId37"/>
+    <hyperlink ref="L20" r:id="rId38"/>
+    <hyperlink ref="K21" r:id="rId39"/>
+    <hyperlink ref="L21" r:id="rId40"/>
+    <hyperlink ref="K22" r:id="rId41"/>
+    <hyperlink ref="L22" r:id="rId42"/>
+    <hyperlink ref="K23" r:id="rId43"/>
+    <hyperlink ref="L23" r:id="rId44"/>
+    <hyperlink ref="K24" r:id="rId45"/>
+    <hyperlink ref="L24" r:id="rId46"/>
+    <hyperlink ref="K25" r:id="rId47"/>
+    <hyperlink ref="L25" r:id="rId48"/>
+    <hyperlink ref="K26" r:id="rId49"/>
+    <hyperlink ref="L26" r:id="rId50"/>
+    <hyperlink ref="K27" r:id="rId51"/>
+    <hyperlink ref="L27" r:id="rId52"/>
+    <hyperlink ref="K28" r:id="rId53"/>
+    <hyperlink ref="L28" r:id="rId54"/>
+    <hyperlink ref="K29" r:id="rId55"/>
+    <hyperlink ref="L29" r:id="rId56"/>
+    <hyperlink ref="K30" r:id="rId57"/>
+    <hyperlink ref="L30" r:id="rId58"/>
+    <hyperlink ref="K31" r:id="rId59"/>
+    <hyperlink ref="L31" r:id="rId60"/>
+    <hyperlink ref="K32" r:id="rId61"/>
+    <hyperlink ref="L32" r:id="rId62"/>
+    <hyperlink ref="K33" r:id="rId63"/>
+    <hyperlink ref="L33" r:id="rId64"/>
+    <hyperlink ref="K34" r:id="rId65"/>
+    <hyperlink ref="L34" r:id="rId66"/>
+    <hyperlink ref="K35" r:id="rId67"/>
+    <hyperlink ref="L35" r:id="rId68"/>
+    <hyperlink ref="K36" r:id="rId69"/>
+    <hyperlink ref="L36" r:id="rId70"/>
+    <hyperlink ref="K37" r:id="rId71"/>
+    <hyperlink ref="L37" r:id="rId72"/>
+    <hyperlink ref="K38" r:id="rId73"/>
+    <hyperlink ref="L38" r:id="rId74"/>
+    <hyperlink ref="K39" r:id="rId75"/>
+    <hyperlink ref="L39" r:id="rId76"/>
+    <hyperlink ref="K40" r:id="rId77"/>
+    <hyperlink ref="L40" r:id="rId78"/>
+    <hyperlink ref="K41" r:id="rId79"/>
+    <hyperlink ref="L41" r:id="rId80"/>
+    <hyperlink ref="K42" r:id="rId81"/>
+    <hyperlink ref="L42" r:id="rId82"/>
+    <hyperlink ref="K43" r:id="rId83"/>
+    <hyperlink ref="L43" r:id="rId84"/>
+    <hyperlink ref="K44" r:id="rId85"/>
+    <hyperlink ref="L44" r:id="rId86"/>
+    <hyperlink ref="K45" r:id="rId87"/>
+    <hyperlink ref="L45" r:id="rId88"/>
+    <hyperlink ref="K46" r:id="rId89"/>
+    <hyperlink ref="L46" r:id="rId90"/>
+    <hyperlink ref="K47" r:id="rId91"/>
+    <hyperlink ref="L47" r:id="rId92"/>
+    <hyperlink ref="K48" r:id="rId93"/>
+    <hyperlink ref="L48" r:id="rId94"/>
+    <hyperlink ref="K49" r:id="rId95"/>
+    <hyperlink ref="L49" r:id="rId96"/>
+    <hyperlink ref="K50" r:id="rId97"/>
+    <hyperlink ref="L50" r:id="rId98"/>
+    <hyperlink ref="K51" r:id="rId99"/>
+    <hyperlink ref="L51" r:id="rId100"/>
+    <hyperlink ref="K52" r:id="rId101"/>
+    <hyperlink ref="L52" r:id="rId102"/>
+    <hyperlink ref="K53" r:id="rId103"/>
+    <hyperlink ref="L53" r:id="rId104"/>
+    <hyperlink ref="K54" r:id="rId105"/>
+    <hyperlink ref="L54" r:id="rId106"/>
+    <hyperlink ref="K55" r:id="rId107"/>
+    <hyperlink ref="L55" r:id="rId108"/>
+    <hyperlink ref="K56" r:id="rId109"/>
+    <hyperlink ref="L56" r:id="rId110"/>
+    <hyperlink ref="K57" r:id="rId111"/>
+    <hyperlink ref="L57" r:id="rId112"/>
+    <hyperlink ref="K58" r:id="rId113"/>
+    <hyperlink ref="L58" r:id="rId114"/>
+    <hyperlink ref="K59" r:id="rId115"/>
+    <hyperlink ref="L59" r:id="rId116"/>
+    <hyperlink ref="K60" r:id="rId117"/>
+    <hyperlink ref="L60" r:id="rId118"/>
+    <hyperlink ref="K61" r:id="rId119"/>
+    <hyperlink ref="L61" r:id="rId120"/>
+    <hyperlink ref="K62" r:id="rId121"/>
+    <hyperlink ref="L62" r:id="rId122"/>
+    <hyperlink ref="K63" r:id="rId123"/>
+    <hyperlink ref="L63" r:id="rId124"/>
+    <hyperlink ref="K64" r:id="rId125"/>
+    <hyperlink ref="L64" r:id="rId126"/>
+    <hyperlink ref="K65" r:id="rId127"/>
+    <hyperlink ref="L65" r:id="rId128"/>
+    <hyperlink ref="K66" r:id="rId129"/>
+    <hyperlink ref="L66" r:id="rId130"/>
+    <hyperlink ref="K67" r:id="rId131"/>
+    <hyperlink ref="L67" r:id="rId132"/>
+    <hyperlink ref="K68" r:id="rId133"/>
+    <hyperlink ref="L68" r:id="rId134"/>
+    <hyperlink ref="K69" r:id="rId135"/>
+    <hyperlink ref="L69" r:id="rId136"/>
+    <hyperlink ref="K70" r:id="rId137"/>
+    <hyperlink ref="L70" r:id="rId138"/>
+    <hyperlink ref="K71" r:id="rId139"/>
+    <hyperlink ref="L71" r:id="rId140"/>
+    <hyperlink ref="K72" r:id="rId141"/>
+    <hyperlink ref="L72" r:id="rId142"/>
+    <hyperlink ref="K73" r:id="rId143"/>
+    <hyperlink ref="L73" r:id="rId144"/>
+    <hyperlink ref="K74" r:id="rId145"/>
+    <hyperlink ref="L74" r:id="rId146"/>
+    <hyperlink ref="K75" r:id="rId147"/>
+    <hyperlink ref="L75" r:id="rId148"/>
+    <hyperlink ref="K76" r:id="rId149"/>
+    <hyperlink ref="L76" r:id="rId150"/>
+    <hyperlink ref="K77" r:id="rId151"/>
+    <hyperlink ref="L77" r:id="rId152"/>
+    <hyperlink ref="K78" r:id="rId153"/>
+    <hyperlink ref="L78" r:id="rId154"/>
+    <hyperlink ref="K79" r:id="rId155"/>
+    <hyperlink ref="L79" r:id="rId156"/>
+    <hyperlink ref="K80" r:id="rId157"/>
+    <hyperlink ref="L80" r:id="rId158"/>
+    <hyperlink ref="K81" r:id="rId159"/>
+    <hyperlink ref="L81" r:id="rId160"/>
+    <hyperlink ref="K82" r:id="rId161"/>
+    <hyperlink ref="L82" r:id="rId162"/>
+    <hyperlink ref="K83" r:id="rId163"/>
+    <hyperlink ref="L83" r:id="rId164"/>
+    <hyperlink ref="K84" r:id="rId165"/>
+    <hyperlink ref="L84" r:id="rId166"/>
+    <hyperlink ref="K85" r:id="rId167"/>
+    <hyperlink ref="L85" r:id="rId168"/>
+    <hyperlink ref="K86" r:id="rId169"/>
+    <hyperlink ref="L86" r:id="rId170"/>
+    <hyperlink ref="K87" r:id="rId171"/>
+    <hyperlink ref="L87" r:id="rId172"/>
+    <hyperlink ref="K88" r:id="rId173"/>
+    <hyperlink ref="L88" r:id="rId174"/>
+    <hyperlink ref="K89" r:id="rId175"/>
+    <hyperlink ref="L89" r:id="rId176"/>
+    <hyperlink ref="K90" r:id="rId177"/>
+    <hyperlink ref="L90" r:id="rId178"/>
+    <hyperlink ref="K91" r:id="rId179"/>
+    <hyperlink ref="L91" r:id="rId180"/>
+    <hyperlink ref="K92" r:id="rId181"/>
+    <hyperlink ref="L92" r:id="rId182"/>
+    <hyperlink ref="K93" r:id="rId183"/>
+    <hyperlink ref="L93" r:id="rId184"/>
+    <hyperlink ref="K94" r:id="rId185"/>
+    <hyperlink ref="L94" r:id="rId186"/>
+    <hyperlink ref="K95" r:id="rId187"/>
+    <hyperlink ref="L95" r:id="rId188"/>
+    <hyperlink ref="K96" r:id="rId189"/>
+    <hyperlink ref="L96" r:id="rId190"/>
+    <hyperlink ref="K97" r:id="rId191"/>
+    <hyperlink ref="L97" r:id="rId192"/>
+    <hyperlink ref="K98" r:id="rId193"/>
+    <hyperlink ref="L98" r:id="rId194"/>
+    <hyperlink ref="K99" r:id="rId195"/>
+    <hyperlink ref="L99" r:id="rId196"/>
+    <hyperlink ref="K100" r:id="rId197"/>
+    <hyperlink ref="L100" r:id="rId198"/>
+    <hyperlink ref="K101" r:id="rId199"/>
+    <hyperlink ref="L101" r:id="rId200"/>
+    <hyperlink ref="K102" r:id="rId201"/>
+    <hyperlink ref="L102" r:id="rId202"/>
+    <hyperlink ref="K103" r:id="rId203"/>
+    <hyperlink ref="L103" r:id="rId204"/>
+    <hyperlink ref="K104" r:id="rId205"/>
+    <hyperlink ref="L104" r:id="rId206"/>
+    <hyperlink ref="K105" r:id="rId207"/>
+    <hyperlink ref="L105" r:id="rId208"/>
+    <hyperlink ref="K106" r:id="rId209"/>
+    <hyperlink ref="L106" r:id="rId210"/>
+    <hyperlink ref="K107" r:id="rId211"/>
+    <hyperlink ref="L107" r:id="rId212"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId213"/>
